--- a/files/template/template_agreement.xlsx
+++ b/files/template/template_agreement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\I3C\dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DF0155-91D2-4940-8C40-C4FAC6CE0DD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17651061-0424-44E6-B52A-802776B1DB3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>agreement_status</t>
   </si>
@@ -155,6 +155,36 @@
   </si>
   <si>
     <t>kalkllja</t>
+  </si>
+  <si>
+    <t>15/03/2030</t>
+  </si>
+  <si>
+    <t>15/03/2032</t>
+  </si>
+  <si>
+    <t>15/03/2034</t>
+  </si>
+  <si>
+    <t>15/03/2036</t>
+  </si>
+  <si>
+    <t>15/03/2038</t>
+  </si>
+  <si>
+    <t>15/03/2020</t>
+  </si>
+  <si>
+    <t>15/04/2020</t>
+  </si>
+  <si>
+    <t>15/05/2020</t>
+  </si>
+  <si>
+    <t>15/06/2020</t>
+  </si>
+  <si>
+    <t>15/07/2020</t>
   </si>
 </sst>
 </file>
@@ -162,9 +192,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +333,12 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF00FF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -673,13 +709,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1038,13 +1074,13 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" customWidth="1"/>
@@ -1061,70 +1097,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2">
-        <v>47208</v>
-      </c>
-      <c r="D2" s="2">
-        <v>43556</v>
+      <c r="C2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1167,14 +1203,14 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="2">
-        <v>47542</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43891</v>
+      <c r="C3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -1217,14 +1253,14 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="2">
-        <v>45995</v>
-      </c>
-      <c r="D4" s="2">
-        <v>43814</v>
+      <c r="C4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -1256,14 +1292,14 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="2">
-        <v>44227</v>
-      </c>
-      <c r="D5" s="2">
-        <v>44197</v>
+      <c r="C5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
@@ -1303,14 +1339,14 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="2">
-        <v>44227</v>
-      </c>
-      <c r="D6" s="2">
-        <v>44197</v>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
@@ -1350,6 +1386,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
